--- a/Nhom8_QuanLyCuaHangLaptop.xlsx
+++ b/Nhom8_QuanLyCuaHangLaptop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="MoTaChucNang" sheetId="2" r:id="rId1"/>
@@ -187,12 +187,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Thống kê tình hình kinh doanh trong một </t>
     </r>
     <r>
@@ -259,12 +253,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Thống kê sản phẩm bán chạy theo </t>
     </r>
     <r>
@@ -5599,8 +5587,8 @@
   <sheetPr/>
   <dimension ref="A2:P241"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -17438,7 +17426,7 @@
   <sheetPr/>
   <dimension ref="A2:A362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>

--- a/Nhom8_QuanLyCuaHangLaptop.xlsx
+++ b/Nhom8_QuanLyCuaHangLaptop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="1"/>
+    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MoTaChucNang" sheetId="2" r:id="rId1"/>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Thống kê tình hình kinh doanh trong một </t>
     </r>
     <r>
@@ -253,6 +259,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Thống kê sản phẩm bán chạy theo </t>
     </r>
     <r>
@@ -1341,7 +1353,7 @@
     <t>Vũ Trung Kiên</t>
   </si>
   <si>
-    <t>Lê Gia Tính</t>
+    <t>Lưu Gia Tính</t>
   </si>
   <si>
     <t>Vũ Mạnh Tuấn</t>
@@ -5587,7 +5599,7 @@
   <sheetPr/>
   <dimension ref="A2:P241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B26" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B26" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -8329,8 +8341,8 @@
   <sheetPr/>
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G15" workbookViewId="0">
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1"/>

--- a/Nhom8_QuanLyCuaHangLaptop.xlsx
+++ b/Nhom8_QuanLyCuaHangLaptop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="MoTaChucNang" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="356">
   <si>
     <t>DANH SÁCH MÔ TẢ CÁC CHỨC NĂNG CỦA PHẦN MỀM QUẢN LÝ CỬA HÀNG BÁN LAPTOP</t>
   </si>
@@ -89,26 +89,10 @@
     <t>Bấm nút xác nhận chi tiết hóa đơn</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Nhập số điện thoại của khách hàng</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Xác nhận thông tin khách hàng</t>
-    </r>
+    <t>Nhập số điện thoại của khách hàng</t>
+  </si>
+  <si>
+    <t>Xác nhận thông tin khách hàng</t>
   </si>
   <si>
     <r>
@@ -133,15 +117,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ngày xuất hóa đơn, tổng giá trị hóa đơn hệ thống tự động điền</t>
-    </r>
+    <t>Ngày xuất hóa đơn, tổng giá trị hóa đơn hệ thống tự động điền</t>
   </si>
   <si>
     <r>
@@ -158,41 +134,19 @@
     <t>Báo cáo, thống kê (có giao diện)</t>
   </si>
   <si>
+    <t>Người dùng chọn loại thống kê muốn xem</t>
+  </si>
+  <si>
+    <t>Bấm nút xác nhận</t>
+  </si>
+  <si>
+    <t>Chọn các điều kiện tạo thống kê theo loại thống kê vừa chọn</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Người dùng chọn loại thống kê muốn xem</t>
-    </r>
-  </si>
-  <si>
-    <t>Bấm nút xác nhận</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Chọn các điều kiện tạo thống kê theo loại thống kê vừa chọn</t>
-    </r>
-  </si>
-  <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Thống kê tình hình kinh doanh trong một </t>
     </r>
     <r>
@@ -233,38 +187,16 @@
     </r>
   </si>
   <si>
+    <t>Người dùng chọn khoảng thời gian muốn lập bảng thống kê</t>
+  </si>
+  <si>
+    <t>Chọn loại sản phẩm hoặc tất cả sản phẩm</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Người dùng chọn khoảng thời gian muốn lập bảng thống kê</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Chọn loại sản phẩm hoặc tất cả sản phẩm</t>
-    </r>
-  </si>
-  <si>
-    <t>2.3.2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Thống kê sản phẩm bán chạy theo </t>
     </r>
     <r>
@@ -287,15 +219,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Người dùng chọn khoảng thời gian</t>
-    </r>
+    <t>Người dùng chọn khoảng thời gian</t>
   </si>
   <si>
     <t>Xuất excel của bảng cần báo cáo</t>
@@ -373,6 +297,123 @@
     <t>Bấm nút xác nhận xuất file</t>
   </si>
   <si>
+    <t>Quản lý nhà cung cấp (có giao diện)</t>
+  </si>
+  <si>
+    <t>Thêm nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Nhấn vào nút thêm nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Nhập mã của nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Nhập tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Nhập địa chỉ của nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Nhập số điện thoại liên hệ</t>
+  </si>
+  <si>
+    <t>Nhập email</t>
+  </si>
+  <si>
+    <t>Sửa thông tin nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Chọn một nhà cung cấp muốn sửa</t>
+  </si>
+  <si>
+    <t>Nhấn nút sửa thông tin nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Chọn vào thông tin muốn sửa (không sửa mã nhà cung cấp)</t>
+  </si>
+  <si>
+    <t>Nhập lại thông tin mới</t>
+  </si>
+  <si>
+    <t>Xóa thông tin nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Chọn một nhà cung cấp muốn xóa</t>
+  </si>
+  <si>
+    <t>Nhấn nút xóa nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Bấm nút xác nhận xóa trong hộp thoại xác nhận</t>
+  </si>
+  <si>
+    <t>Tìm kiếm thông tin nhà cung cấp theo điều kiện</t>
+  </si>
+  <si>
+    <t>Chọn tiêu chí tìm kiếm (VD: dựa vào tên, mã,...)</t>
+  </si>
+  <si>
+    <t>Quản lý nhân viên (có giao diện)</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên mới</t>
+  </si>
+  <si>
+    <t>Nhấn vào nút thêm nhân viên</t>
+  </si>
+  <si>
+    <t>Nhập mã nhân viên</t>
+  </si>
+  <si>
+    <t>Nhập họ tên của nhân viên</t>
+  </si>
+  <si>
+    <t>Nhập địa chỉ</t>
+  </si>
+  <si>
+    <t>Nhập ngày sinh</t>
+  </si>
+  <si>
+    <t>Chọn giới tính</t>
+  </si>
+  <si>
+    <t>Nhập số CCCD</t>
+  </si>
+  <si>
+    <t>Nhập Email</t>
+  </si>
+  <si>
+    <t>Chọn hình chân dung của nhân viên</t>
+  </si>
+  <si>
+    <t>Sửa thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Chọn nhân viên muốn thay đổi thông tin</t>
+  </si>
+  <si>
+    <t>Nhấn vào nút sửa thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Chọn thông tin muốn sửa (mã nhân viên không được sửa)</t>
+  </si>
+  <si>
+    <t>Xóa thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Chọn một nhân viên muốn xóa thông tin</t>
+  </si>
+  <si>
+    <t>Nhấn vào nút xóa nhân viên</t>
+  </si>
+  <si>
+    <t>Bấm nút xác nhận xóa trong hộp thoại xác nhận, hệ thống sẽ xóa thông tin và tài khoản ( nếu có ) của nhân viên đó khỏi hệ thống.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm nhân viên</t>
+  </si>
+  <si>
     <t>Nhập file excel</t>
   </si>
   <si>
@@ -382,123 +423,6 @@
     <t>Chọn ghi đè hoặc tránh ghi đè lên bản ghi đã có sẵn</t>
   </si>
   <si>
-    <t>Quản lý nhà cung cấp (có giao diện)</t>
-  </si>
-  <si>
-    <t>Thêm nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Nhấn vào nút thêm nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Nhập mã của nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Nhập tên nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Nhập địa chỉ của nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Nhập số điện thoại liên hệ</t>
-  </si>
-  <si>
-    <t>Nhập email</t>
-  </si>
-  <si>
-    <t>Sửa thông tin nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Chọn một nhà cung cấp muốn sửa</t>
-  </si>
-  <si>
-    <t>Nhấn nút sửa thông tin nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Chọn vào thông tin muốn sửa (không sửa mã nhà cung cấp)</t>
-  </si>
-  <si>
-    <t>Nhập lại thông tin mới</t>
-  </si>
-  <si>
-    <t>Xóa thông tin nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Chọn một nhà cung cấp muốn xóa</t>
-  </si>
-  <si>
-    <t>Nhấn nút xóa nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Bấm nút xác nhận xóa trong hộp thoại xác nhận</t>
-  </si>
-  <si>
-    <t>Tìm kiếm thông tin nhà cung cấp theo điều kiện</t>
-  </si>
-  <si>
-    <t>Chọn tiêu chí tìm kiếm (VD: dựa vào tên, mã,...)</t>
-  </si>
-  <si>
-    <t>Quản lý nhân viên (có giao diện)</t>
-  </si>
-  <si>
-    <t>Thêm nhân viên mới</t>
-  </si>
-  <si>
-    <t>Nhấn vào nút thêm nhân viên</t>
-  </si>
-  <si>
-    <t>Nhập mã nhân viên</t>
-  </si>
-  <si>
-    <t>Nhập họ tên của nhân viên</t>
-  </si>
-  <si>
-    <t>Nhập địa chỉ</t>
-  </si>
-  <si>
-    <t>Nhập ngày sinh</t>
-  </si>
-  <si>
-    <t>Chọn giới tính</t>
-  </si>
-  <si>
-    <t>Nhập số CCCD</t>
-  </si>
-  <si>
-    <t>Nhập Email</t>
-  </si>
-  <si>
-    <t>Chọn hình chân dung của nhân viên</t>
-  </si>
-  <si>
-    <t>Sửa thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>Chọn nhân viên muốn thay đổi thông tin</t>
-  </si>
-  <si>
-    <t>Nhấn vào nút sửa thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>Chọn thông tin muốn sửa (mã nhân viên không được sửa)</t>
-  </si>
-  <si>
-    <t>Xóa thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>Chọn một nhân viên muốn xóa thông tin</t>
-  </si>
-  <si>
-    <t>Nhấn vào nút xóa nhân viên</t>
-  </si>
-  <si>
-    <t>Bấm nút xác nhận xóa trong hộp thoại xác nhận, hệ thống sẽ xóa thông tin và tài khoản ( nếu có ) của nhân viên đó khỏi hệ thống.</t>
-  </si>
-  <si>
-    <t>Tìm kiếm nhân viên</t>
-  </si>
-  <si>
     <t>Quản lý tài khoản (có giao diện)</t>
   </si>
   <si>
@@ -571,9 +495,6 @@
     <t>Tích điểm cho khách</t>
   </si>
   <si>
-    <t>Đăng nhập/ đăng ký tài khoản</t>
-  </si>
-  <si>
     <t>Đăng nhập</t>
   </si>
   <si>
@@ -592,18 +513,6 @@
     <t>Bấm nút đăng nhập</t>
   </si>
   <si>
-    <t>Đăng ký tài khoản</t>
-  </si>
-  <si>
-    <t>Nhập tên đăng nhập</t>
-  </si>
-  <si>
-    <t>Nhập mật khẩu, nhập lại mật khẩu</t>
-  </si>
-  <si>
-    <t>Bấm nút đăng ký tài khoản</t>
-  </si>
-  <si>
     <t>Quản lý nhập hàng (có giao diện)</t>
   </si>
   <si>
@@ -613,40 +522,19 @@
     <t>Nhập mã của phiếu nhập hàng</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Chọn nhà cung cấp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ngày nhập được tự động thêm</t>
-    </r>
+    <t>Chọn nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Ngày nhập được tự động thêm</t>
   </si>
   <si>
     <t>Chỉnh sửa chi tiết phiếu nhập</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Thêm chi tiết phiếu</t>
-    </r>
+    <t>Thêm chi tiết phiếu</t>
+  </si>
+  <si>
+    <t>Sửa chi tiết phiếu</t>
   </si>
   <si>
     <r>
@@ -682,15 +570,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Sửa chi tiết phiếu</t>
-    </r>
+    <t>Xóa chi tiết phiếu</t>
   </si>
   <si>
     <r>
@@ -726,15 +606,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Xóa chi tiết phiếu</t>
-    </r>
+    <t>Chọn lưu phiếu</t>
+  </si>
+  <si>
+    <t>Sửa phiếu nhập</t>
+  </si>
+  <si>
+    <t>Thực hiện các thay đổi trên phiếu(nhà cung cấp, các chi tiết phiếu)</t>
   </si>
   <si>
     <r>
@@ -748,6 +626,9 @@
     </r>
   </si>
   <si>
+    <t>Chọn lưu thay đổi</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -759,70 +640,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Chọn lưu phiếu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Sửa phiếu nhập</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Thực hiện các thay đổi trên phiếu(nhà cung cấp, các chi tiết phiếu)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Chọn lưu thay đổi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Nhấn xác nhận</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Xóa phiếu nhập</t>
-    </r>
+    <t>Nhấn xác nhận</t>
+  </si>
+  <si>
+    <t>Xóa phiếu nhập</t>
   </si>
   <si>
     <t>Nhấn nút xóa</t>
@@ -846,21 +667,12 @@
     <t>Xem chi tiết hóa đơn</t>
   </si>
   <si>
-    <t>Nhấp chọn hóa đơn muốn xem</t>
+    <t>Chọn hóa đơn muốn xem</t>
   </si>
   <si>
     <t>Bấm nút xem chi tiết hóa đơn</t>
   </si>
   <si>
-    <t>In hóa đơn ra file pdf</t>
-  </si>
-  <si>
-    <t>Chọn hóa đơn muốn in</t>
-  </si>
-  <si>
-    <t>Bấm nút in hóa đơn ra file pdf</t>
-  </si>
-  <si>
     <t>Quản lý phiếu nhập hàng</t>
   </si>
   <si>
@@ -877,12 +689,6 @@
   </si>
   <si>
     <t>Bấm nút xem chi tiết phiếu nhập</t>
-  </si>
-  <si>
-    <t>Chọn phiếu nhập muốn in</t>
-  </si>
-  <si>
-    <t>Bấm nút in phiếu nhập ra file pdf</t>
   </si>
   <si>
     <t>Sơ đồ CSDL logic</t>
@@ -5597,10 +5403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:P241"/>
+  <dimension ref="A2:P218"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6014,99 +5820,95 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" ht="22" customHeight="1" spans="1:3">
+    <row r="68" ht="22" customHeight="1" spans="1:2">
       <c r="A68" s="208">
-        <v>3.6</v>
-      </c>
-      <c r="B68" s="223"/>
-      <c r="C68" s="213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="224" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" ht="22" customHeight="1" spans="2:4">
-      <c r="B69" s="223"/>
-      <c r="D69" s="219" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="208">
+        <v>4.1</v>
+      </c>
+      <c r="C69" s="213" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" ht="22" customHeight="1" spans="2:4">
-      <c r="B70" s="223"/>
-      <c r="D70" s="219" t="s">
+    <row r="70" spans="4:4">
+      <c r="D70" s="221" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" ht="22" customHeight="1" spans="2:4">
-      <c r="B71" s="223"/>
-      <c r="D71" s="219" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" ht="22" customHeight="1" spans="1:2">
-      <c r="A72" s="208">
-        <v>4</v>
-      </c>
-      <c r="B72" s="224" t="s">
+    <row r="71" spans="4:4">
+      <c r="D71" s="221" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="208">
-        <v>4.1</v>
-      </c>
-      <c r="C73" s="213" t="s">
+    <row r="72" spans="4:4">
+      <c r="D72" s="219" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="219" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="221" t="s">
-        <v>70</v>
+      <c r="D74" s="219" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="221" t="s">
-        <v>71</v>
+      <c r="D75" s="219" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="219" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" s="219" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="208">
+        <v>4.2</v>
+      </c>
+      <c r="C77" s="213" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="219" t="s">
+      <c r="D78" s="221" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="219" t="s">
+      <c r="D79" s="221" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="219" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="208">
-        <v>4.2</v>
-      </c>
-      <c r="C81" s="213" t="s">
+      <c r="D80" s="221" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="219" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="221" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" s="221" t="s">
+      <c r="D82" s="219" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="208">
+        <v>4.3</v>
+      </c>
+      <c r="C83" s="213" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6122,941 +5924,797 @@
     </row>
     <row r="86" spans="4:4">
       <c r="D86" s="219" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="208">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="C87" s="213" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="4:4">
-      <c r="D88" s="221" t="s">
-        <v>82</v>
+      <c r="D88" s="219" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="4:4">
-      <c r="D89" s="219" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="4:4">
-      <c r="D90" s="219" t="s">
+      <c r="D89" s="221" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="208">
+        <v>4.5</v>
+      </c>
+      <c r="B90" s="223"/>
+      <c r="C90" s="213" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="223"/>
+      <c r="D91" s="219" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="223"/>
+      <c r="D92" s="219" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="208">
+        <v>5</v>
+      </c>
+      <c r="B93" s="225" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="208">
-        <v>4.4</v>
-      </c>
-      <c r="C91" s="213" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="4:4">
-      <c r="D92" s="219" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="93" spans="4:4">
-      <c r="D93" s="221" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="208">
-        <v>4.5</v>
-      </c>
-      <c r="B94" s="223"/>
-      <c r="C94" s="213" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="223"/>
-      <c r="D95" s="219" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4">
-      <c r="B96" s="223"/>
+        <v>5.1</v>
+      </c>
+      <c r="C94" s="226" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="227" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
       <c r="D96" s="219" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="208">
-        <v>4.6</v>
-      </c>
-      <c r="B97" s="223"/>
-      <c r="C97" s="213" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="223"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="219" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
       <c r="D98" s="219" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="223"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
       <c r="D99" s="219" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="223"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
       <c r="D100" s="219" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="208">
-        <v>5</v>
-      </c>
-      <c r="B101" s="225" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="208">
-        <v>5.1</v>
-      </c>
-      <c r="C102" s="226" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="219" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="219" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="4:4">
-      <c r="D103" s="227" t="s">
-        <v>89</v>
+      <c r="D103" s="219" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="4:4">
       <c r="D104" s="219" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="4:4">
       <c r="D105" s="219" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="106" spans="4:4">
-      <c r="D106" s="219" t="s">
-        <v>74</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="208">
+        <v>5.2</v>
+      </c>
+      <c r="C106" s="228" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="4:4">
-      <c r="D107" s="219" t="s">
-        <v>92</v>
+      <c r="D107" s="227" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="4:4">
-      <c r="D108" s="219" t="s">
-        <v>93</v>
+      <c r="D108" s="227" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="4:4">
-      <c r="D109" s="219" t="s">
-        <v>94</v>
+      <c r="D109" s="227" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" s="219" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111" s="219" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="112" spans="4:4">
-      <c r="D112" s="219" t="s">
-        <v>97</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="208">
+        <v>5.3</v>
+      </c>
+      <c r="C112" s="228" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="4:4">
-      <c r="D113" s="219" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="208">
-        <v>5.2</v>
-      </c>
-      <c r="C114" s="228" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="115" spans="4:4">
-      <c r="D115" s="227" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="116" spans="4:4">
-      <c r="D116" s="227" t="s">
+      <c r="D113" s="227" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="114" ht="23" customHeight="1" spans="4:4">
+      <c r="D114" s="219" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" ht="40" customHeight="1" spans="4:4">
+      <c r="D115" s="219" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="208">
+        <v>5.4</v>
+      </c>
+      <c r="C116" s="228" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="117" spans="4:4">
-      <c r="D117" s="227" t="s">
-        <v>101</v>
+      <c r="D117" s="219" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="4:4">
-      <c r="D118" s="219" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119" spans="4:4">
-      <c r="D119" s="219" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="208">
-        <v>5.3</v>
-      </c>
-      <c r="C120" s="228" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="121" spans="4:4">
-      <c r="D121" s="227" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="122" ht="23" customHeight="1" spans="4:4">
-      <c r="D122" s="219" t="s">
+      <c r="D118" s="221" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="208">
+        <v>5.5</v>
+      </c>
+      <c r="B119" s="223"/>
+      <c r="C119" s="213" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="223"/>
+      <c r="D120" s="219" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="223"/>
+      <c r="D121" s="219" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="208">
+        <v>5.6</v>
+      </c>
+      <c r="B122" s="223"/>
+      <c r="C122" s="213" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="123" ht="40" customHeight="1" spans="4:4">
+    <row r="123" spans="2:4">
+      <c r="B123" s="223"/>
       <c r="D123" s="219" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="208">
-        <v>5.4</v>
-      </c>
-      <c r="C124" s="228" t="s">
+    <row r="124" spans="2:4">
+      <c r="B124" s="223"/>
+      <c r="D124" s="219" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="4:4">
+    <row r="125" spans="2:4">
+      <c r="B125" s="223"/>
       <c r="D125" s="219" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="4:4">
-      <c r="D126" s="221" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="208">
+        <v>6</v>
+      </c>
+      <c r="B126" s="225" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="208">
-        <v>5.5</v>
-      </c>
-      <c r="B127" s="223"/>
-      <c r="C127" s="213" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4">
-      <c r="B128" s="223"/>
-      <c r="D128" s="219" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4">
-      <c r="B129" s="223"/>
-      <c r="D129" s="219" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="208">
-        <v>5.6</v>
-      </c>
-      <c r="B130" s="223"/>
-      <c r="C130" s="213" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4">
-      <c r="B131" s="223"/>
+        <v>6.1</v>
+      </c>
+      <c r="C127" s="228" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" s="227" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" s="227" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="219" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
       <c r="D131" s="219" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4">
-      <c r="B132" s="223"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4">
       <c r="D132" s="219" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4">
-      <c r="B133" s="223"/>
-      <c r="D133" s="219" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="208">
-        <v>6</v>
-      </c>
-      <c r="B134" s="225" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="208">
-        <v>6.1</v>
-      </c>
-      <c r="C135" s="228" t="s">
-        <v>108</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="208">
+        <v>6.2</v>
+      </c>
+      <c r="C133" s="228" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" s="227" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="D135" s="219" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="4:4">
-      <c r="D136" s="227" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="137" spans="4:4">
-      <c r="D137" s="227" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="138" spans="4:4">
+      <c r="D136" s="219" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="208">
+        <v>6.3</v>
+      </c>
+      <c r="C137" s="228" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4">
+      <c r="C138" s="229"/>
       <c r="D138" s="219" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="139" spans="4:4">
-      <c r="D139" s="219" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" ht="31.5" spans="4:4">
+      <c r="D139" s="227" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" s="219" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="208">
-        <v>6.2</v>
-      </c>
-      <c r="C141" s="228" t="s">
-        <v>113</v>
+        <v>6.4</v>
+      </c>
+      <c r="C141" s="230" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="142" spans="4:4">
-      <c r="D142" s="227" t="s">
-        <v>114</v>
+      <c r="D142" s="219" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="4:4">
-      <c r="D143" s="219" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="144" spans="4:4">
-      <c r="D144" s="219" t="s">
-        <v>84</v>
+      <c r="D143" s="221" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="208">
+        <v>7</v>
+      </c>
+      <c r="B144" s="212" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="208">
-        <v>6.3</v>
-      </c>
-      <c r="C145" s="228" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="146" spans="3:4">
-      <c r="C146" s="229"/>
-      <c r="D146" s="219" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="147" ht="31.5" spans="4:4">
-      <c r="D147" s="227" t="s">
-        <v>118</v>
+        <v>7.1</v>
+      </c>
+      <c r="C145" s="213" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="146" ht="16.5" spans="4:4">
+      <c r="D146" s="231" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" s="219" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" s="219" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="208">
-        <v>6.4</v>
-      </c>
-      <c r="C149" s="230" t="s">
-        <v>119</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" s="219" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" s="219" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="221" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="D151" s="219" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="152" ht="16.5" spans="1:3">
       <c r="A152" s="208">
-        <v>7</v>
-      </c>
-      <c r="B152" s="212" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="208">
-        <v>7.1</v>
-      </c>
-      <c r="C153" s="213" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="154" ht="16.5" spans="4:4">
-      <c r="D154" s="231" t="s">
-        <v>122</v>
+        <v>7.2</v>
+      </c>
+      <c r="C152" s="232" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" s="219" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="219" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="4:4">
       <c r="D155" s="219" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" s="219" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="4:4">
       <c r="D157" s="219" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="158" spans="4:4">
-      <c r="D158" s="219" t="s">
-        <v>92</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="208">
+        <v>7.3</v>
+      </c>
+      <c r="C158" s="230" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="4:4">
       <c r="D159" s="219" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="160" ht="16.5" spans="1:3">
-      <c r="A160" s="208">
-        <v>7.2</v>
-      </c>
-      <c r="C160" s="232" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="161" spans="4:4">
-      <c r="D161" s="219" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="162" spans="4:4">
-      <c r="D162" s="219" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="163" spans="4:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" s="221" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" s="207" customFormat="1" spans="1:4">
+      <c r="A162" s="208">
+        <v>7.4</v>
+      </c>
+      <c r="B162" s="223"/>
+      <c r="C162" s="216" t="s">
+        <v>62</v>
+      </c>
+      <c r="D162" s="208"/>
+    </row>
+    <row r="163" s="207" customFormat="1" spans="1:4">
+      <c r="A163" s="208"/>
+      <c r="B163" s="223"/>
+      <c r="C163" s="208"/>
       <c r="D163" s="219" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="164" spans="4:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" s="207" customFormat="1" spans="1:4">
+      <c r="A164" s="208"/>
+      <c r="B164" s="223"/>
+      <c r="C164" s="208"/>
       <c r="D164" s="219" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="165" spans="4:4">
-      <c r="D165" s="219" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" s="207" customFormat="1" spans="1:5">
+      <c r="A165" s="208">
+        <v>7.6</v>
+      </c>
+      <c r="B165" s="207"/>
+      <c r="C165" s="216" t="s">
+        <v>130</v>
+      </c>
+      <c r="D165" s="233"/>
+      <c r="E165" s="208"/>
+    </row>
+    <row r="166" s="207" customFormat="1" spans="1:5">
       <c r="A166" s="208">
-        <v>7.3</v>
-      </c>
-      <c r="C166" s="230" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="167" spans="4:4">
-      <c r="D167" s="219" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="168" spans="4:4">
-      <c r="D168" s="221" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="170" s="207" customFormat="1" spans="1:4">
-      <c r="A170" s="208">
-        <v>7.4</v>
-      </c>
-      <c r="B170" s="223"/>
-      <c r="C170" s="216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="212" t="s">
+        <v>131</v>
+      </c>
+      <c r="C166" s="208"/>
+      <c r="D166" s="233"/>
+      <c r="E166" s="208"/>
+    </row>
+    <row r="167" s="207" customFormat="1" spans="1:5">
+      <c r="A167" s="208">
+        <v>8.1</v>
+      </c>
+      <c r="B167" s="208"/>
+      <c r="C167" s="213" t="s">
+        <v>131</v>
+      </c>
+      <c r="D167" s="208"/>
+      <c r="E167" s="208"/>
+    </row>
+    <row r="168" s="207" customFormat="1" spans="1:5">
+      <c r="A168" s="208"/>
+      <c r="B168" s="208"/>
+      <c r="C168" s="208"/>
+      <c r="D168" s="214" t="s">
+        <v>132</v>
+      </c>
+      <c r="E168" s="208"/>
+    </row>
+    <row r="169" spans="5:5">
+      <c r="E169" s="215" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5">
+      <c r="E170" s="215" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5">
+      <c r="E171" s="215" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4">
+      <c r="D172" s="214" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="208">
+        <v>9</v>
+      </c>
+      <c r="B173" s="212" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="208">
+        <v>9.1</v>
+      </c>
+      <c r="C174" s="234" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4">
+      <c r="C175" s="235"/>
+      <c r="D175" s="219" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4">
+      <c r="C176" s="235"/>
+      <c r="D176" s="236" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177" s="236" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" s="219" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5">
+      <c r="E179" s="237" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5">
+      <c r="E183" s="237" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="184" spans="6:6">
+      <c r="F184" s="238" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="185" spans="6:6">
+      <c r="F185" s="238" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="186" spans="6:6">
+      <c r="F186" s="238" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5">
+      <c r="E187" s="237" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="188" spans="6:6">
+      <c r="F188" s="238" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="189" spans="6:6">
+      <c r="F189" s="238" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="190" spans="6:6">
+      <c r="F190" s="238" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4">
+      <c r="D191" s="239" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="208">
+        <v>9.2</v>
+      </c>
+      <c r="C192" s="240" t="s">
+        <v>153</v>
+      </c>
+      <c r="F192" s="238" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="193" spans="4:6">
+      <c r="D193" s="236" t="s">
+        <v>154</v>
+      </c>
+      <c r="F193" s="238" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="194" spans="4:6">
+      <c r="D194" s="236" t="s">
+        <v>156</v>
+      </c>
+      <c r="F194" s="238" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4">
+      <c r="D195" s="236" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="208">
+        <v>9.3</v>
+      </c>
+      <c r="C196" s="240" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" s="241" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" s="241" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="208">
+        <v>10</v>
+      </c>
+      <c r="B199" s="212" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="208">
+        <v>10.1</v>
+      </c>
+      <c r="C200" s="213" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4">
+      <c r="D201" s="219" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202" s="219" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="208">
+        <v>10.2</v>
+      </c>
+      <c r="C203" s="213" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" s="219" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" s="219" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="208">
+        <v>10.4</v>
+      </c>
+      <c r="B206" s="223"/>
+      <c r="C206" s="216" t="s">
         <v>62</v>
       </c>
-      <c r="D170" s="208"/>
-    </row>
-    <row r="171" s="207" customFormat="1" spans="1:4">
-      <c r="A171" s="208"/>
-      <c r="B171" s="223"/>
-      <c r="C171" s="208"/>
-      <c r="D171" s="219" t="s">
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" s="223"/>
+      <c r="D207" s="219" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="172" s="207" customFormat="1" spans="1:4">
-      <c r="A172" s="208"/>
-      <c r="B172" s="223"/>
-      <c r="C172" s="208"/>
-      <c r="D172" s="219" t="s">
+    <row r="208" spans="2:4">
+      <c r="B208" s="223"/>
+      <c r="D208" s="219" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="173" s="207" customFormat="1" spans="1:4">
-      <c r="A173" s="208">
-        <v>7.5</v>
-      </c>
-      <c r="B173" s="223"/>
-      <c r="C173" s="213" t="s">
-        <v>65</v>
-      </c>
-      <c r="D173" s="208"/>
-    </row>
-    <row r="174" s="207" customFormat="1" spans="1:4">
-      <c r="A174" s="208"/>
-      <c r="B174" s="223"/>
-      <c r="C174" s="208"/>
-      <c r="D174" s="219" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="175" s="207" customFormat="1" spans="1:4">
-      <c r="A175" s="208"/>
-      <c r="B175" s="223"/>
-      <c r="C175" s="208"/>
-      <c r="D175" s="219" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="176" s="207" customFormat="1" spans="1:4">
-      <c r="A176" s="208"/>
-      <c r="B176" s="223"/>
-      <c r="C176" s="208"/>
-      <c r="D176" s="219" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="208">
-        <v>7.6</v>
-      </c>
-      <c r="B177" s="207"/>
-      <c r="C177" s="216" t="s">
-        <v>130</v>
-      </c>
-      <c r="D177" s="233"/>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="208">
-        <v>8</v>
-      </c>
-      <c r="B178" s="212" t="s">
-        <v>131</v>
-      </c>
-      <c r="D178" s="233"/>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="208">
-        <v>8.1</v>
-      </c>
-      <c r="C179" s="213" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="180" spans="4:4">
-      <c r="D180" s="214" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="181" spans="5:5">
-      <c r="E181" s="215" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="182" spans="5:5">
-      <c r="E182" s="215" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="183" spans="5:5">
-      <c r="E183" s="215" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="184" spans="4:4">
-      <c r="D184" s="214" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="208">
-        <v>8.2</v>
-      </c>
-      <c r="C185" s="213" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="186" spans="4:4">
-      <c r="D186" s="219" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="187" spans="4:4">
-      <c r="D187" s="219" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="188" spans="4:4">
-      <c r="D188" s="219" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="189" spans="4:4">
-      <c r="D189" s="219" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="208">
-        <v>9</v>
-      </c>
-      <c r="B190" s="212" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="208">
-        <v>9.1</v>
-      </c>
-      <c r="C191" s="234" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="192" spans="3:4">
-      <c r="C192" s="235"/>
-      <c r="D192" s="219" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="193" spans="3:4">
-      <c r="C193" s="235"/>
-      <c r="D193" s="236" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="194" spans="4:4">
-      <c r="D194" s="236" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="195" spans="4:4">
-      <c r="D195" s="219" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="196" spans="5:5">
-      <c r="E196" s="237" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="197" spans="6:6">
-      <c r="F197" s="238" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="198" spans="6:6">
-      <c r="F198" s="238" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="199" spans="6:6">
-      <c r="F199" s="238" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="200" spans="5:5">
-      <c r="E200" s="237" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="201" spans="6:6">
-      <c r="F201" s="238" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="202" spans="6:6">
-      <c r="F202" s="238" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="203" spans="6:6">
-      <c r="F203" s="238" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="204" spans="5:5">
-      <c r="E204" s="237" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="205" spans="6:6">
-      <c r="F205" s="238" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="206" spans="6:6">
-      <c r="F206" s="238" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="207" spans="6:6">
-      <c r="F207" s="238" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="208" spans="4:4">
-      <c r="D208" s="239" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:2">
       <c r="A209" s="208">
-        <v>9.2</v>
-      </c>
-      <c r="C209" s="240" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="210" spans="4:4">
-      <c r="D210" s="236" t="s">
-        <v>161</v>
+        <v>11</v>
+      </c>
+      <c r="B209" s="212" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="208">
+        <v>11.1</v>
+      </c>
+      <c r="C210" s="213" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="211" spans="4:4">
-      <c r="D211" s="236" t="s">
-        <v>162</v>
+      <c r="D211" s="219" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="212" spans="4:4">
-      <c r="D212" s="236" t="s">
-        <v>163</v>
+      <c r="D212" s="219" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="208">
-        <v>9.3</v>
-      </c>
-      <c r="C213" s="240" t="s">
-        <v>164</v>
+        <v>11.2</v>
+      </c>
+      <c r="C213" s="213" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="214" spans="4:4">
-      <c r="D214" s="241" t="s">
-        <v>165</v>
+      <c r="D214" s="219" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="215" spans="4:4">
-      <c r="D215" s="241" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="D215" s="219" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="208">
-        <v>10</v>
-      </c>
-      <c r="B216" s="212" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="208">
-        <v>10.1</v>
-      </c>
-      <c r="C217" s="213" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="218" spans="4:4">
+        <v>11.4</v>
+      </c>
+      <c r="B216" s="223"/>
+      <c r="C216" s="216" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" s="223"/>
+      <c r="D217" s="219" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4">
+      <c r="B218" s="223"/>
       <c r="D218" s="219" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="219" spans="4:4">
-      <c r="D219" s="219" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="208">
-        <v>10.2</v>
-      </c>
-      <c r="C220" s="213" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="221" spans="4:4">
-      <c r="D221" s="219" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="222" spans="4:4">
-      <c r="D222" s="219" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="208">
-        <v>10.3</v>
-      </c>
-      <c r="C223" s="213" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="224" spans="4:4">
-      <c r="D224" s="219" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="225" spans="4:4">
-      <c r="D225" s="219" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="208">
-        <v>10.4</v>
-      </c>
-      <c r="B226" s="223"/>
-      <c r="C226" s="216" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="227" spans="2:4">
-      <c r="B227" s="223"/>
-      <c r="D227" s="219" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4">
-      <c r="B228" s="223"/>
-      <c r="D228" s="219" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="208">
-        <v>11</v>
-      </c>
-      <c r="B229" s="212" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="208">
-        <v>11.1</v>
-      </c>
-      <c r="C230" s="213" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="231" spans="4:4">
-      <c r="D231" s="219" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="232" spans="4:4">
-      <c r="D232" s="219" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="208">
-        <v>11.2</v>
-      </c>
-      <c r="C233" s="213" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="234" spans="4:4">
-      <c r="D234" s="219" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="235" spans="4:4">
-      <c r="D235" s="219" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="208">
-        <v>11.3</v>
-      </c>
-      <c r="C236" s="213" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="237" spans="4:4">
-      <c r="D237" s="219" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="238" spans="4:4">
-      <c r="D238" s="219" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="208">
-        <v>11.4</v>
-      </c>
-      <c r="B239" s="223"/>
-      <c r="C239" s="216" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="240" spans="2:4">
-      <c r="B240" s="223"/>
-      <c r="D240" s="219" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="241" spans="2:4">
-      <c r="B241" s="223"/>
-      <c r="D241" s="219" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7090,31 +6748,31 @@
   <sheetData>
     <row r="2" s="195" customFormat="1" spans="1:1">
       <c r="A2" s="196" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" s="195" customFormat="1" spans="1:1">
       <c r="A4" s="197" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" s="195" customFormat="1" spans="1:1">
       <c r="A43" s="198" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" s="195" customFormat="1" spans="2:5">
       <c r="B45" s="199" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C45" s="199" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D45" s="199" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E45" s="195" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" s="195" customFormat="1" spans="2:4">
@@ -7122,10 +6780,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="200" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D46" s="200" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" s="195" customFormat="1" spans="2:4">
@@ -7133,10 +6791,10 @@
         <v>2</v>
       </c>
       <c r="C47" s="200" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D47" s="200" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" s="195" customFormat="1" ht="31.5" spans="2:5">
@@ -7144,13 +6802,13 @@
         <v>3</v>
       </c>
       <c r="C48" s="200" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D48" s="200" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E48" s="195" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" s="195" customFormat="1" ht="31.5" spans="2:4">
@@ -7158,10 +6816,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="200" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D49" s="200" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" s="195" customFormat="1" ht="31.5" spans="2:4">
@@ -7169,10 +6827,10 @@
         <v>5</v>
       </c>
       <c r="C50" s="200" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D50" s="200" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" s="195" customFormat="1" ht="31.5" spans="2:4">
@@ -7180,10 +6838,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="200" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D51" s="200" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" s="195" customFormat="1" ht="31.5" spans="2:4">
@@ -7191,10 +6849,10 @@
         <v>7</v>
       </c>
       <c r="C52" s="200" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D52" s="200" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" s="195" customFormat="1" spans="2:4">
@@ -7202,10 +6860,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="200" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D53" s="200" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" s="195" customFormat="1" ht="31.5" spans="2:4">
@@ -7213,10 +6871,10 @@
         <v>9</v>
       </c>
       <c r="C54" s="200" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D54" s="200" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" s="195" customFormat="1" ht="31.5" spans="2:4">
@@ -7224,40 +6882,40 @@
         <v>10</v>
       </c>
       <c r="C55" s="200" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D55" s="200" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" s="195" customFormat="1" spans="1:1">
       <c r="A57" s="198" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" s="195" customFormat="1" spans="1:1">
       <c r="A58" s="201" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" s="195" customFormat="1" spans="2:7">
       <c r="B59" s="202" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C59" s="202" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D59" s="202" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E59" s="202" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F59" s="202" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G59" s="203" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" s="195" customFormat="1" spans="2:7">
@@ -7265,10 +6923,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="205" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D60" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E60" s="205">
         <v>50</v>
@@ -7281,10 +6939,10 @@
         <v>2</v>
       </c>
       <c r="C61" s="205" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D61" s="205" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E61" s="205">
         <v>50</v>
@@ -7297,10 +6955,10 @@
         <v>3</v>
       </c>
       <c r="C62" s="205" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D62" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E62" s="205">
         <v>50</v>
@@ -7313,10 +6971,10 @@
         <v>4</v>
       </c>
       <c r="C63" s="205" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D63" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E63" s="205">
         <v>50</v>
@@ -7329,10 +6987,10 @@
         <v>5</v>
       </c>
       <c r="C64" s="205" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D64" s="205" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E64" s="205"/>
       <c r="F64" s="206"/>
@@ -7343,10 +7001,10 @@
         <v>6</v>
       </c>
       <c r="C65" s="205" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D65" s="205" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E65" s="205"/>
       <c r="F65" s="206"/>
@@ -7357,10 +7015,10 @@
         <v>7</v>
       </c>
       <c r="C66" s="205" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D66" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E66" s="205">
         <v>50</v>
@@ -7373,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="C67" s="205" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D67" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E67" s="205">
         <v>50</v>
@@ -7389,10 +7047,10 @@
         <v>9</v>
       </c>
       <c r="C68" s="205" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D68" s="205" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E68" s="205">
         <v>50</v>
@@ -7405,10 +7063,10 @@
         <v>10</v>
       </c>
       <c r="C69" s="205" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D69" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E69" s="205">
         <v>50</v>
@@ -7418,27 +7076,27 @@
     </row>
     <row r="74" s="195" customFormat="1" spans="1:1">
       <c r="A74" s="201" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" s="195" customFormat="1" spans="2:7">
       <c r="B75" s="202" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C75" s="202" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D75" s="202" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E75" s="202" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F75" s="202" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G75" s="203" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" s="195" customFormat="1" spans="2:7">
@@ -7446,10 +7104,10 @@
         <v>1</v>
       </c>
       <c r="C76" s="205" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D76" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E76" s="205">
         <v>50</v>
@@ -7462,10 +7120,10 @@
         <v>2</v>
       </c>
       <c r="C77" s="205" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D77" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E77" s="205">
         <v>50</v>
@@ -7478,10 +7136,10 @@
         <v>3</v>
       </c>
       <c r="C78" s="205" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D78" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E78" s="205">
         <v>50</v>
@@ -7491,27 +7149,27 @@
     </row>
     <row r="80" s="195" customFormat="1" spans="1:1">
       <c r="A80" s="201" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" s="195" customFormat="1" spans="2:7">
       <c r="B81" s="202" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C81" s="202" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D81" s="202" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E81" s="202" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F81" s="202" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G81" s="203" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" s="195" customFormat="1" spans="2:7">
@@ -7519,10 +7177,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="205" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D82" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E82" s="205">
         <v>50</v>
@@ -7535,10 +7193,10 @@
         <v>2</v>
       </c>
       <c r="C83" s="205" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D83" s="205" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E83" s="205">
         <v>50</v>
@@ -7551,10 +7209,10 @@
         <v>3</v>
       </c>
       <c r="C84" s="205" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D84" s="205" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E84" s="205"/>
       <c r="F84" s="206"/>
@@ -7565,10 +7223,10 @@
         <v>4</v>
       </c>
       <c r="C85" s="205" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D85" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E85" s="205">
         <v>50</v>
@@ -7581,10 +7239,10 @@
         <v>5</v>
       </c>
       <c r="C86" s="205" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D86" s="205" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E86" s="205"/>
       <c r="F86" s="206"/>
@@ -7595,10 +7253,10 @@
         <v>6</v>
       </c>
       <c r="C87" s="205" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E87" s="205">
         <v>50</v>
@@ -7611,10 +7269,10 @@
         <v>7</v>
       </c>
       <c r="C88" s="205" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D88" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E88" s="205">
         <v>50</v>
@@ -7627,41 +7285,41 @@
         <v>8</v>
       </c>
       <c r="C89" s="205" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D89" s="205" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E89" s="205"/>
       <c r="F89" s="206"/>
       <c r="G89" s="203"/>
       <c r="H89" s="195" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" s="195" customFormat="1" spans="1:1">
       <c r="A91" s="201" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" s="195" customFormat="1" spans="2:7">
       <c r="B92" s="202" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C92" s="202" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D92" s="202" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E92" s="202" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F92" s="202" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G92" s="203" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" s="195" customFormat="1" spans="2:7">
@@ -7669,10 +7327,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="205" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D93" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E93" s="205">
         <v>50</v>
@@ -7685,10 +7343,10 @@
         <v>2</v>
       </c>
       <c r="C94" s="205" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D94" s="205" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F94" s="206"/>
       <c r="G94" s="203"/>
@@ -7698,10 +7356,10 @@
         <v>3</v>
       </c>
       <c r="C95" s="205" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D95" s="205" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E95" s="205"/>
       <c r="F95" s="206"/>
@@ -7712,10 +7370,10 @@
         <v>4</v>
       </c>
       <c r="C96" s="205" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D96" s="205" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E96" s="205">
         <v>50</v>
@@ -7728,10 +7386,10 @@
         <v>5</v>
       </c>
       <c r="C97" s="205" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D97" s="205" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E97" s="205">
         <v>50</v>
@@ -7741,27 +7399,27 @@
     </row>
     <row r="99" s="195" customFormat="1" spans="1:1">
       <c r="A99" s="201" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" s="195" customFormat="1" spans="2:7">
       <c r="B100" s="202" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C100" s="202" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D100" s="202" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E100" s="202" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F100" s="202" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G100" s="203" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" s="195" customFormat="1" spans="2:7">
@@ -7769,10 +7427,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="205" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D101" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E101" s="205">
         <v>50</v>
@@ -7785,10 +7443,10 @@
         <v>2</v>
       </c>
       <c r="C102" s="205" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D102" s="205" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E102" s="205">
         <v>50</v>
@@ -7801,10 +7459,10 @@
         <v>3</v>
       </c>
       <c r="C103" s="205" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D103" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E103" s="205">
         <v>50</v>
@@ -7817,10 +7475,10 @@
         <v>4</v>
       </c>
       <c r="C104" s="205" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D104" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E104" s="205">
         <v>50</v>
@@ -7833,10 +7491,10 @@
         <v>5</v>
       </c>
       <c r="C105" s="205" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D105" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E105" s="205">
         <v>50</v>
@@ -7849,10 +7507,10 @@
         <v>6</v>
       </c>
       <c r="C106" s="205" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D106" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E106" s="205">
         <v>50</v>
@@ -7862,27 +7520,27 @@
     </row>
     <row r="108" s="195" customFormat="1" spans="1:1">
       <c r="A108" s="201" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" s="195" customFormat="1" spans="2:7">
       <c r="B109" s="202" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C109" s="202" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D109" s="202" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E109" s="202" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F109" s="202" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G109" s="203" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" s="195" customFormat="1" spans="2:7">
@@ -7890,10 +7548,10 @@
         <v>1</v>
       </c>
       <c r="C110" s="205" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D110" s="205" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E110" s="205"/>
       <c r="F110" s="206"/>
@@ -7904,10 +7562,10 @@
         <v>2</v>
       </c>
       <c r="C111" s="205" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D111" s="205" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E111" s="205"/>
       <c r="F111" s="206"/>
@@ -7918,10 +7576,10 @@
         <v>3</v>
       </c>
       <c r="C112" s="205" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D112" s="205" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E112" s="205"/>
       <c r="F112" s="206"/>
@@ -7932,10 +7590,10 @@
         <v>4</v>
       </c>
       <c r="C113" s="205" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D113" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E113" s="205">
         <v>50</v>
@@ -7948,10 +7606,10 @@
         <v>5</v>
       </c>
       <c r="C114" s="205" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D114" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E114" s="205">
         <v>50</v>
@@ -7961,27 +7619,27 @@
     </row>
     <row r="116" s="195" customFormat="1" spans="1:1">
       <c r="A116" s="201" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" s="195" customFormat="1" spans="2:7">
       <c r="B117" s="202" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C117" s="202" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D117" s="202" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E117" s="202" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F117" s="202" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G117" s="203" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" s="195" customFormat="1" spans="2:7">
@@ -7989,10 +7647,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="205" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D118" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E118" s="205">
         <v>50</v>
@@ -8005,10 +7663,10 @@
         <v>2</v>
       </c>
       <c r="C119" s="205" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D119" s="205" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E119" s="205"/>
       <c r="F119" s="206"/>
@@ -8019,10 +7677,10 @@
         <v>3</v>
       </c>
       <c r="C120" s="205" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D120" s="205" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E120" s="205"/>
       <c r="F120" s="206"/>
@@ -8030,27 +7688,27 @@
     </row>
     <row r="122" s="195" customFormat="1" spans="1:1">
       <c r="A122" s="201" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" s="195" customFormat="1" spans="2:7">
       <c r="B123" s="202" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C123" s="202" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D123" s="202" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E123" s="202" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F123" s="202" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G123" s="203" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="124" s="195" customFormat="1" spans="2:7">
@@ -8058,10 +7716,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="205" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D124" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E124" s="205">
         <v>50</v>
@@ -8074,10 +7732,10 @@
         <v>2</v>
       </c>
       <c r="C125" s="205" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D125" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E125" s="205">
         <v>50</v>
@@ -8090,10 +7748,10 @@
         <v>3</v>
       </c>
       <c r="C126" s="205" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D126" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E126" s="205">
         <v>50</v>
@@ -8106,10 +7764,10 @@
         <v>4</v>
       </c>
       <c r="C127" s="205" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D127" s="205" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E127" s="205"/>
       <c r="F127" s="206"/>
@@ -8120,10 +7778,10 @@
         <v>5</v>
       </c>
       <c r="C128" s="205" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D128" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E128" s="205">
         <v>50</v>
@@ -8136,10 +7794,10 @@
         <v>6</v>
       </c>
       <c r="C129" s="205" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D129" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E129" s="205">
         <v>50</v>
@@ -8149,27 +7807,27 @@
     </row>
     <row r="131" s="195" customFormat="1" spans="1:1">
       <c r="A131" s="201" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" s="195" customFormat="1" spans="2:7">
       <c r="B132" s="202" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C132" s="202" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D132" s="202" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E132" s="202" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F132" s="202" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G132" s="203" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" s="195" customFormat="1" spans="2:7">
@@ -8177,10 +7835,10 @@
         <v>1</v>
       </c>
       <c r="C133" s="205" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D133" s="205" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E133" s="205"/>
       <c r="F133" s="206"/>
@@ -8191,10 +7849,10 @@
         <v>2</v>
       </c>
       <c r="C134" s="205" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D134" s="205" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E134" s="205"/>
       <c r="F134" s="206"/>
@@ -8205,10 +7863,10 @@
         <v>3</v>
       </c>
       <c r="C135" s="205" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D135" s="205" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E135" s="205"/>
       <c r="F135" s="206"/>
@@ -8219,10 +7877,10 @@
         <v>4</v>
       </c>
       <c r="C136" s="205" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D136" s="205" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E136" s="205"/>
       <c r="F136" s="206"/>
@@ -8233,10 +7891,10 @@
         <v>5</v>
       </c>
       <c r="C137" s="205" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D137" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E137" s="205">
         <v>50</v>
@@ -8249,10 +7907,10 @@
         <v>6</v>
       </c>
       <c r="C138" s="205" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D138" s="205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E138" s="205">
         <v>50</v>
@@ -8262,27 +7920,27 @@
     </row>
     <row r="140" s="195" customFormat="1" spans="1:1">
       <c r="A140" s="201" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" s="195" customFormat="1" spans="2:7">
       <c r="B141" s="202" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C141" s="202" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D141" s="202" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E141" s="202" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F141" s="202" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G141" s="203" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="142" s="195" customFormat="1" spans="2:7">
@@ -8290,10 +7948,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="205" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D142" s="205" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E142" s="205">
         <v>50</v>
@@ -8306,10 +7964,10 @@
         <v>2</v>
       </c>
       <c r="C143" s="205" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D143" s="205" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E143" s="205"/>
       <c r="F143" s="206"/>
@@ -8320,10 +7978,10 @@
         <v>3</v>
       </c>
       <c r="C144" s="205" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D144" s="205" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E144" s="205"/>
       <c r="F144" s="206"/>
@@ -8341,7 +7999,7 @@
   <sheetPr/>
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G15" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G15" workbookViewId="0">
       <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
@@ -8404,19 +8062,19 @@
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="78" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="K2" s="79"/>
       <c r="L2" s="80" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="M2" s="79"/>
       <c r="N2" s="81"/>
@@ -8431,7 +8089,7 @@
       <c r="W2" s="123"/>
       <c r="X2" s="123"/>
       <c r="Y2" s="170" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="171"/>
@@ -8446,7 +8104,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="W3" s="124"/>
       <c r="X3" s="124"/>
@@ -8492,19 +8150,19 @@
     <row r="5" ht="13.5" customHeight="1" spans="1:30">
       <c r="A5" s="4"/>
       <c r="B5" s="18" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
       <c r="G5" s="22" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="82" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
@@ -8516,7 +8174,7 @@
       <c r="R5" s="23"/>
       <c r="S5" s="125"/>
       <c r="T5" s="23" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
@@ -8526,7 +8184,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="171"/>
       <c r="AB5" s="109" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AC5" s="178"/>
       <c r="AD5" s="4"/>
@@ -8541,15 +8199,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="83"/>
       <c r="J6" s="84" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="K6" s="84" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="L6" s="84"/>
       <c r="M6" s="84"/>
@@ -8560,30 +8218,30 @@
       <c r="R6" s="127"/>
       <c r="S6" s="128"/>
       <c r="T6" s="129" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="U6" s="130" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="V6" s="130" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="W6" s="131" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="X6" s="131" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Y6" s="179" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="171"/>
       <c r="AB6" s="116" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AC6" s="116" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AD6" s="4"/>
     </row>
@@ -8597,15 +8255,15 @@
         <v>2</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="85"/>
       <c r="J7" s="86" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="K7" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="L7" s="87"/>
       <c r="M7" s="87"/>
@@ -8617,7 +8275,7 @@
       <c r="S7" s="134"/>
       <c r="T7" s="135"/>
       <c r="U7" s="136" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="V7" s="136"/>
       <c r="W7" s="137"/>
@@ -8626,7 +8284,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="171"/>
       <c r="AB7" s="116" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AC7" s="116"/>
       <c r="AD7" s="4"/>
@@ -8641,15 +8299,15 @@
         <v>3</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="85"/>
       <c r="J8" s="86" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="K8" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="L8" s="87"/>
       <c r="M8" s="87"/>
@@ -8660,30 +8318,30 @@
       <c r="R8" s="133"/>
       <c r="S8" s="134"/>
       <c r="T8" s="135" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="U8" s="136" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="V8" s="136" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="W8" s="137" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="X8" s="137" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Y8" s="180" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Z8" s="4"/>
       <c r="AA8" s="171"/>
       <c r="AB8" s="116" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AC8" s="116" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AD8" s="4"/>
     </row>
@@ -8697,15 +8355,15 @@
         <v>4</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="85"/>
       <c r="J9" s="86" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="K9" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="L9" s="87"/>
       <c r="M9" s="87"/>
@@ -8716,11 +8374,11 @@
       <c r="R9" s="133"/>
       <c r="S9" s="134"/>
       <c r="T9" s="135" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="U9" s="136"/>
       <c r="V9" s="136" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="W9" s="137"/>
       <c r="X9" s="137"/>
@@ -8741,17 +8399,17 @@
         <v>5</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="85"/>
       <c r="J10" s="86"/>
       <c r="K10" s="87"/>
       <c r="L10" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M10" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="N10" s="87"/>
       <c r="O10" s="87"/>
@@ -8762,17 +8420,17 @@
       <c r="T10" s="135"/>
       <c r="U10" s="136"/>
       <c r="V10" s="136" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="W10" s="137"/>
       <c r="X10" s="137"/>
       <c r="Y10" s="180" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="171"/>
       <c r="AB10" s="109" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AC10" s="116"/>
       <c r="AD10" s="4"/>
@@ -8787,7 +8445,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="85"/>
@@ -8795,7 +8453,7 @@
       <c r="K11" s="87"/>
       <c r="L11" s="87"/>
       <c r="M11" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="N11" s="87"/>
       <c r="O11" s="87"/>
@@ -8805,21 +8463,21 @@
       <c r="S11" s="134"/>
       <c r="T11" s="135"/>
       <c r="U11" s="136" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="V11" s="136"/>
       <c r="W11" s="137" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="X11" s="137"/>
       <c r="Y11" s="180"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="171"/>
       <c r="AB11" s="116" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AC11" s="116" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AD11" s="4"/>
     </row>
@@ -8833,7 +8491,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="85"/>
@@ -8841,10 +8499,10 @@
       <c r="K12" s="87"/>
       <c r="L12" s="87"/>
       <c r="M12" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="N12" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="O12" s="87"/>
       <c r="P12" s="87"/>
@@ -8852,22 +8510,22 @@
       <c r="R12" s="133"/>
       <c r="S12" s="134"/>
       <c r="T12" s="135" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="U12" s="136"/>
       <c r="V12" s="136"/>
       <c r="W12" s="137"/>
       <c r="X12" s="137" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Y12" s="180"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="171"/>
       <c r="AB12" s="116" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AC12" s="116" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AD12" s="4"/>
     </row>
@@ -8881,7 +8539,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="85"/>
@@ -8890,7 +8548,7 @@
       <c r="L13" s="87"/>
       <c r="M13" s="87"/>
       <c r="N13" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="O13" s="87"/>
       <c r="P13" s="87"/>
@@ -8899,20 +8557,20 @@
       <c r="S13" s="134"/>
       <c r="T13" s="135"/>
       <c r="U13" s="136" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="V13" s="136"/>
       <c r="W13" s="137" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="X13" s="137" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Y13" s="180"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="171"/>
       <c r="AB13" s="116" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="AC13" s="116"/>
       <c r="AD13" s="4"/>
@@ -8927,7 +8585,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="85"/>
@@ -8937,18 +8595,18 @@
       <c r="M14" s="87"/>
       <c r="N14" s="87"/>
       <c r="O14" s="88" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P14" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="132" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="R14" s="133"/>
       <c r="S14" s="134"/>
       <c r="T14" s="135" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="U14" s="136"/>
       <c r="V14" s="136"/>
@@ -8958,7 +8616,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="171"/>
       <c r="AB14" s="109" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AC14" s="116"/>
       <c r="AD14" s="4"/>
@@ -8973,7 +8631,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="85"/>
@@ -8983,20 +8641,20 @@
       <c r="M15" s="87"/>
       <c r="N15" s="87"/>
       <c r="O15" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P15" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q15" s="132" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="R15" s="133"/>
       <c r="S15" s="134"/>
       <c r="T15" s="135"/>
       <c r="U15" s="136"/>
       <c r="V15" s="136" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="W15" s="137"/>
       <c r="X15" s="137"/>
@@ -9004,10 +8662,10 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="171"/>
       <c r="AB15" s="116" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AC15" s="181" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="AD15" s="4"/>
     </row>
@@ -9021,7 +8679,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="85"/>
@@ -9031,19 +8689,19 @@
       <c r="M16" s="87"/>
       <c r="N16" s="87"/>
       <c r="O16" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P16" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="132" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="R16" s="133"/>
       <c r="S16" s="134"/>
       <c r="T16" s="135"/>
       <c r="U16" s="136" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="V16" s="136"/>
       <c r="W16" s="137"/>
@@ -9065,7 +8723,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="85"/>
@@ -9075,13 +8733,13 @@
       <c r="M17" s="87"/>
       <c r="N17" s="87"/>
       <c r="O17" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P17" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="132" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="R17" s="133"/>
       <c r="S17" s="134"/>
@@ -9090,16 +8748,16 @@
       <c r="V17" s="136"/>
       <c r="W17" s="137"/>
       <c r="X17" s="137" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Y17" s="180"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="171"/>
       <c r="AB17" s="116" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AC17" s="116" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AD17" s="4"/>
     </row>
@@ -9113,7 +8771,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="89"/>
@@ -9123,20 +8781,20 @@
       <c r="M18" s="87"/>
       <c r="N18" s="87"/>
       <c r="O18" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P18" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="132" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="R18" s="133"/>
       <c r="S18" s="134"/>
       <c r="T18" s="135"/>
       <c r="U18" s="136"/>
       <c r="V18" s="136" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="W18" s="137"/>
       <c r="X18" s="137"/>
@@ -9157,7 +8815,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="89"/>
@@ -9167,13 +8825,13 @@
       <c r="M19" s="87"/>
       <c r="N19" s="87"/>
       <c r="O19" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P19" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="132" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="R19" s="133"/>
       <c r="S19" s="134"/>
@@ -9181,17 +8839,17 @@
       <c r="U19" s="136"/>
       <c r="V19" s="136"/>
       <c r="W19" s="136" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="X19" s="136"/>
       <c r="Y19" s="180"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="171"/>
       <c r="AB19" s="116" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="AC19" s="181" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="AD19" s="4"/>
     </row>
@@ -9205,7 +8863,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="89"/>
@@ -9215,18 +8873,18 @@
       <c r="M20" s="87"/>
       <c r="N20" s="87"/>
       <c r="O20" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P20" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="132" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="R20" s="133"/>
       <c r="S20" s="134"/>
       <c r="T20" s="135" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="U20" s="136"/>
       <c r="V20" s="136"/>
@@ -9249,7 +8907,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="89"/>
@@ -9259,13 +8917,13 @@
       <c r="M21" s="87"/>
       <c r="N21" s="87"/>
       <c r="O21" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P21" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q21" s="132" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="R21" s="133"/>
       <c r="S21" s="134"/>
@@ -9275,7 +8933,7 @@
       <c r="W21" s="137"/>
       <c r="X21" s="137"/>
       <c r="Y21" s="180" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="171"/>
@@ -9293,7 +8951,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="89"/>
@@ -9303,13 +8961,13 @@
       <c r="M22" s="87"/>
       <c r="N22" s="87"/>
       <c r="O22" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P22" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="132" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="R22" s="133"/>
       <c r="S22" s="134"/>
@@ -9319,7 +8977,7 @@
       <c r="W22" s="137"/>
       <c r="X22" s="137"/>
       <c r="Y22" s="180" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Z22" s="4"/>
       <c r="AA22" s="171"/>
@@ -9337,7 +8995,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="89"/>
@@ -9347,19 +9005,19 @@
       <c r="M23" s="87"/>
       <c r="N23" s="87"/>
       <c r="O23" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P23" s="87" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="132" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="R23" s="133"/>
       <c r="S23" s="134"/>
       <c r="T23" s="135"/>
       <c r="U23" s="136" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="V23" s="136"/>
       <c r="W23" s="137"/>
@@ -9381,7 +9039,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H24" s="43"/>
       <c r="I24" s="90"/>
@@ -9394,26 +9052,26 @@
       <c r="P24" s="92"/>
       <c r="Q24" s="138"/>
       <c r="R24" s="139" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="S24" s="140"/>
       <c r="T24" s="141" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="U24" s="142" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="V24" s="142" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="W24" s="143" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="X24" s="143" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Y24" s="182" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="171"/>
@@ -9431,7 +9089,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H25" s="49"/>
       <c r="I25" s="93"/>
@@ -9445,25 +9103,25 @@
       <c r="Q25" s="144"/>
       <c r="R25" s="139"/>
       <c r="S25" s="145" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="T25" s="141" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="U25" s="142" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="V25" s="142" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="W25" s="143" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="X25" s="143" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Y25" s="182" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Z25" s="4"/>
       <c r="AA25" s="171"/>
@@ -9481,7 +9139,7 @@
       <c r="G26" s="55"/>
       <c r="H26" s="56"/>
       <c r="I26" s="96" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="J26" s="97"/>
       <c r="K26" s="98"/>
@@ -9509,65 +9167,65 @@
       <c r="A27" s="4"/>
       <c r="B27" s="57"/>
       <c r="C27" s="58" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F27" s="59"/>
       <c r="G27" s="60"/>
       <c r="H27" s="61"/>
       <c r="I27" s="61"/>
       <c r="J27" s="99" t="s">
+        <v>318</v>
+      </c>
+      <c r="K27" s="100" t="s">
+        <v>319</v>
+      </c>
+      <c r="L27" s="100" t="s">
+        <v>320</v>
+      </c>
+      <c r="M27" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="N27" s="100" t="s">
+        <v>322</v>
+      </c>
+      <c r="O27" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="P27" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q27" s="152" t="s">
+        <v>325</v>
+      </c>
+      <c r="R27" s="153" t="s">
+        <v>326</v>
+      </c>
+      <c r="S27" s="154" t="s">
+        <v>327</v>
+      </c>
+      <c r="T27" s="155" t="s">
+        <v>266</v>
+      </c>
+      <c r="U27" s="156" t="s">
         <v>328</v>
       </c>
-      <c r="K27" s="100" t="s">
+      <c r="V27" s="157" t="s">
         <v>329</v>
       </c>
-      <c r="L27" s="100" t="s">
+      <c r="W27" s="157" t="s">
         <v>330</v>
       </c>
-      <c r="M27" s="100" t="s">
+      <c r="X27" s="157" t="s">
         <v>331</v>
       </c>
-      <c r="N27" s="100" t="s">
+      <c r="Y27" s="185" t="s">
         <v>332</v>
-      </c>
-      <c r="O27" s="100" t="s">
-        <v>333</v>
-      </c>
-      <c r="P27" s="100" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q27" s="152" t="s">
-        <v>335</v>
-      </c>
-      <c r="R27" s="153" t="s">
-        <v>336</v>
-      </c>
-      <c r="S27" s="154" t="s">
-        <v>337</v>
-      </c>
-      <c r="T27" s="155" t="s">
-        <v>276</v>
-      </c>
-      <c r="U27" s="156" t="s">
-        <v>338</v>
-      </c>
-      <c r="V27" s="157" t="s">
-        <v>339</v>
-      </c>
-      <c r="W27" s="157" t="s">
-        <v>340</v>
-      </c>
-      <c r="X27" s="157" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y27" s="185" t="s">
-        <v>342</v>
       </c>
       <c r="Z27" s="4"/>
       <c r="AA27" s="171"/>
@@ -9604,7 +9262,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="171"/>
       <c r="AB28" s="116" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="AC28" s="116"/>
       <c r="AD28" s="4"/>
@@ -9638,7 +9296,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="171"/>
       <c r="AB29" s="116" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AC29" s="116"/>
       <c r="AD29" s="4"/>
@@ -9672,7 +9330,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="171"/>
       <c r="AB30" s="116" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AC30" s="116"/>
       <c r="AD30" s="4"/>
@@ -9706,7 +9364,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="171"/>
       <c r="AB31" s="116" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AC31" s="116"/>
       <c r="AD31" s="4"/>
@@ -9796,7 +9454,7 @@
       <c r="R34" s="108"/>
       <c r="S34" s="108"/>
       <c r="T34" s="108" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="U34" s="108"/>
       <c r="V34" s="108"/>
@@ -9830,7 +9488,7 @@
       <c r="R35" s="108"/>
       <c r="S35" s="108"/>
       <c r="T35" s="108" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="U35" s="108"/>
       <c r="V35" s="108"/>
@@ -9978,7 +9636,7 @@
       <c r="D40" s="63"/>
       <c r="E40" s="63"/>
       <c r="F40" s="70" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G40" s="71"/>
       <c r="H40" s="71"/>
@@ -10012,7 +9670,7 @@
       <c r="D41" s="63"/>
       <c r="E41" s="63"/>
       <c r="F41" s="72" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G41" s="73"/>
       <c r="H41" s="73"/>
@@ -10046,7 +9704,7 @@
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="72" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
@@ -10107,7 +9765,7 @@
     <row r="44" ht="15.75" customHeight="1" spans="1:30">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -17449,57 +17107,57 @@
   <sheetData>
     <row r="2" s="2" customFormat="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:1">
       <c r="A85" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:1">
       <c r="A127" s="3" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:1">
       <c r="A168" s="3" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="1" spans="1:1">
       <c r="A202" s="3" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="241" s="2" customFormat="1" spans="1:1">
       <c r="A241" s="3" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="282" s="2" customFormat="1" spans="1:1">
       <c r="A282" s="3" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="323" s="2" customFormat="1" spans="1:1">
       <c r="A323" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="362" s="2" customFormat="1" spans="1:1">
       <c r="A362" s="3" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -17525,12 +17183,12 @@
   <sheetData>
     <row r="2" ht="23.25" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="22:22">
       <c r="V20" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Nhom8_QuanLyCuaHangLaptop.xlsx
+++ b/Nhom8_QuanLyCuaHangLaptop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="1"/>
+    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MoTaChucNang" sheetId="2" r:id="rId1"/>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Thống kê tình hình kinh doanh trong một </t>
     </r>
     <r>
@@ -197,6 +203,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Thống kê sản phẩm bán chạy theo </t>
     </r>
     <r>
@@ -5405,7 +5417,7 @@
   <sheetPr/>
   <dimension ref="A2:P218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A205" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A205" workbookViewId="0">
       <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
@@ -6392,7 +6404,6 @@
       <c r="A165" s="208">
         <v>7.6</v>
       </c>
-      <c r="B165" s="207"/>
       <c r="C165" s="216" t="s">
         <v>130</v>
       </c>
@@ -6732,8 +6743,8 @@
   <sheetPr/>
   <dimension ref="A2:H144"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -17096,8 +17107,8 @@
   <sheetPr/>
   <dimension ref="A2:A362"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T70" sqref="T70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.25"/>
@@ -17172,7 +17183,7 @@
   <sheetPr/>
   <dimension ref="B2:V20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>

--- a/Nhom8_QuanLyCuaHangLaptop.xlsx
+++ b/Nhom8_QuanLyCuaHangLaptop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MoTaChucNang" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="356">
   <si>
     <t>DANH SÁCH MÔ TẢ CÁC CHỨC NĂNG CỦA PHẦN MỀM QUẢN LÝ CỬA HÀNG BÁN LAPTOP</t>
   </si>
@@ -997,7 +997,7 @@
     <t>Major Tasks</t>
   </si>
   <si>
-    <t>Project Completed By: 3/11/2023</t>
+    <t>Project Completed By: 29/11/2023</t>
   </si>
   <si>
     <t>Owner</t>
@@ -4754,7 +4754,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>635</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -4766,21 +4766,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="D:\Study_In_University\nam3\HocKy1\CongNghePhanMem\DoAN\Diagram\UseCase\HoaDon.pngHoaDon"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
+        <a:srcRect t="5015" b="5015"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7962900"/>
-          <a:ext cx="10048875" cy="6896100"/>
+          <a:off x="635" y="7962900"/>
+          <a:ext cx="10048240" cy="6896100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4796,33 +4797,34 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="D:\Study_In_University\nam3\HocKy1\CongNghePhanMem\DoAN\Diagram\UseCase\NhapHang.pngNhapHang"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
+        <a:srcRect l="-3" t="4004" r="3" b="3988"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15382875"/>
-          <a:ext cx="10325100" cy="7391400"/>
+          <a:off x="635" y="15382240"/>
+          <a:ext cx="10324465" cy="7391400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4922,33 +4924,34 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>635</xdr:colOff>
       <xdr:row>202</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>199390</xdr:colOff>
       <xdr:row>238</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="D:\Study_In_University\nam3\HocKy1\CongNghePhanMem\DoAN\Diagram\UseCase\BaoCao (1).vpd.pngBaoCao (1).vpd"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
+        <a:srcRect l="3214" t="-5" r="3214" b="5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="36556950"/>
-          <a:ext cx="8734425" cy="6657975"/>
+          <a:off x="635" y="36556950"/>
+          <a:ext cx="8733155" cy="6657975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5090,33 +5093,34 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>362</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>399</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>565785</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="D:\Study_In_University\nam3\HocKy1\CongNghePhanMem\DoAN\Diagram\UseCase\KhachHang.pngKhachHang"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId9"/>
+        <a:srcRect l="8401" t="4" r="8396" b="-4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="65512950"/>
-          <a:ext cx="9563100" cy="6791325"/>
+          <a:off x="9525" y="66286380"/>
+          <a:ext cx="8481060" cy="8143240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6743,7 +6747,7 @@
   <sheetPr/>
   <dimension ref="A2:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A135" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A135" workbookViewId="0">
       <selection activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
@@ -8010,8 +8014,8 @@
   <sheetPr/>
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G15" workbookViewId="0">
-      <selection activeCell="AB35" sqref="AB35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1"/>
@@ -9066,21 +9070,13 @@
         <v>277</v>
       </c>
       <c r="S24" s="140"/>
-      <c r="T24" s="141" t="s">
+      <c r="T24" s="141"/>
+      <c r="U24" s="142"/>
+      <c r="V24" s="142" t="s">
         <v>278</v>
       </c>
-      <c r="U24" s="142" t="s">
-        <v>279</v>
-      </c>
-      <c r="V24" s="142" t="s">
-        <v>279</v>
-      </c>
-      <c r="W24" s="143" t="s">
-        <v>279</v>
-      </c>
-      <c r="X24" s="143" t="s">
-        <v>279</v>
-      </c>
+      <c r="W24" s="143"/>
+      <c r="X24" s="143"/>
       <c r="Y24" s="182" t="s">
         <v>279</v>
       </c>
@@ -17107,8 +17103,8 @@
   <sheetPr/>
   <dimension ref="A2:A362"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T70" sqref="T70"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="P363" sqref="P363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.25"/>
